--- a/Task 2 - Psychological Distance and Risk Perceptions_Lit. Review and brief/Lit. Review.xlsx
+++ b/Task 2 - Psychological Distance and Risk Perceptions_Lit. Review and brief/Lit. Review.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/acc99094a5dd850f/Desktop/VT/Graduate Assist/Task 2 - Lit. Review and brief/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/acc99094a5dd850f/Desktop/VT/Graduate Assist/GA Work_Shruti/Task 2 - Psychological Distance and Risk Perceptions_Lit. Review and brief/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{DC7A747D-5F59-4708-844A-D8ED69E16EED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -1064,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="48" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="48" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1433,7 +1433,7 @@
       <c r="Y7" s="24"/>
       <c r="Z7" s="24"/>
     </row>
-    <row r="8" spans="1:26" ht="270.75">
+    <row r="8" spans="1:26" ht="285">
       <c r="A8" s="24" t="s">
         <v>119</v>
       </c>
